--- a/v0p2/gerber_v0p2_r1/CPL_JLCPCB.xlsx
+++ b/v0p2/gerber_v0p2_r1/CPL_JLCPCB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -37,100 +37,37 @@
     <t xml:space="preserve">Rotation</t>
   </si>
   <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.7530mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-49.2760mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.9580mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.4670mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-59.5630mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1330mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.7660mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3550mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.1480mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9900mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-55.8800mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0040mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-59.4360mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.9750mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36.3220mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-39.3700mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8790mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36.8300mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5300mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-48.0060mm</t>
+    <t xml:space="preserve">C1     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     top    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW2    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1     </t>
   </si>
 </sst>
 </file>
@@ -234,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -245,6 +182,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -267,7 +208,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -299,207 +240,202 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="n">
+        <v>70.358</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>-79.007</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="n">
+        <v>70.358</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>-83.185</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="B4" s="2" t="n">
+        <v>76.708</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>-83.185</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>82.804</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>-78.867</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>82.804</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>-74.676</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>70.358</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>-74.676</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>82.804</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>-83.185</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>270</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="9" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
+      <c r="B9" s="2" t="n">
+        <v>71.628</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>-87.503</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>80.264</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>-87.503</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>76.581</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>-77.343</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>90</v>
-      </c>
-    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/v0p2/gerber_v0p2_r1/CPL_JLCPCB.xlsx
+++ b/v0p2/gerber_v0p2_r1/CPL_JLCPCB.xlsx
@@ -208,7 +208,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -407,7 +407,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
